--- a/docs/PPG/Convênios.xlsx
+++ b/docs/PPG/Convênios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthurde@souunisuam.com.br)/PPGCR Unisuam/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982753BA-F0C6-9B4E-971F-4679B2ED6A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60425E4-2E61-EC4F-B315-5A17755C22C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -55,28 +55,28 @@
     <t>DOU de 09 de junho de 2021 (sec 3 pag 29)</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1o-yqfJlCvaKRcxQTHa-ZpHMfNXMFEOk4/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1GIJDb92_Y_UpxIM7pI-E_4Amo9OE80V1/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/15Bk4aIi6byUgW82ISeg5nokLJWfBnC-D/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Termo de Cooperação Técnica - Academia Paralímpica Brasileira</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1h9KRZsY9OChB0OJcB2UgCFZW5VodQpH0/view?usp=sharing</t>
-  </si>
-  <si>
     <t>Ofício 0220 - Academia Paralímpica Brasileira</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1SBbfMWZ7G37PCi1lbMGFD_p0paA_cO2E/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1T9SpKAWJyjvxXf2hdp0jJyVpEIgp14M-/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1anjVf6DsK_FfVhLD34iQLCQdl6bMxu55/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1an1aTLO-bixzT2WDXgeRsEOd59PfMlxg/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aoJk8hbZu2HiFUdjRHvH6MyhL7BqPo8b/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aoXk1lHYA9cLQyD1RrCBHaDI5eHYF0_B/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_IplsaFQP0cZoTFcsRwIsDR359wGyUXd/view?usp=sharing</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aoTX8hmDHsCm4lTFCmZIUjr8JauNmYyr/view?usp=sharing</t>
   </si>
 </sst>
 </file>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -512,15 +512,15 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{502B2160-AD58-584E-BCFF-8418CE7A4440}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{EFC4524D-9CD1-D241-97B0-07674993C1D0}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{ADCD9D76-DD0F-AF48-A68A-FDE4E8286DA7}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{768D3DC4-7398-FF4D-860C-BB5694927E08}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{C2AA3A44-452B-6344-A11E-D904AE31FB08}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{55F49D36-2318-9247-BBFC-021660B7E0E1}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{A1AA09D1-D47C-5543-BAB1-FDB845C2B695}"/>
+    <hyperlink ref="C2" r:id="rId4" xr:uid="{A11BC4B0-6224-7A40-AAB0-668906F02BDD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -555,10 +555,10 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -566,16 +566,16 @@
         <v>2013</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{409008F4-A793-CC45-849D-05727437008C}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{27B58CF2-21D0-4B4B-9662-C5457E6A5567}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DF9C8DB5-77AC-E340-A069-B526E0EF6050}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{DB48E118-938F-A442-842E-8F99B5BC4670}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Convênios.xlsx
+++ b/docs/PPG/Convênios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60425E4-2E61-EC4F-B315-5A17755C22C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB31C47-2BF2-CF42-AAEC-A23E5505AA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="CEFAN" sheetId="20" r:id="rId1"/>
@@ -451,6 +451,85 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB138E-F137-D447-8E3A-40BFF3AB37BA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="79.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2021</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{C2AA3A44-452B-6344-A11E-D904AE31FB08}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{55F49D36-2318-9247-BBFC-021660B7E0E1}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{A1AA09D1-D47C-5543-BAB1-FDB845C2B695}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{A11BC4B0-6224-7A40-AAB0-668906F02BDD}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D650F-8A08-804F-BE33-EE2FC44397D0}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,85 +551,6 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2021</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2016</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2015</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{C2AA3A44-452B-6344-A11E-D904AE31FB08}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{55F49D36-2318-9247-BBFC-021660B7E0E1}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{A1AA09D1-D47C-5543-BAB1-FDB845C2B695}"/>
-    <hyperlink ref="C2" r:id="rId4" xr:uid="{A11BC4B0-6224-7A40-AAB0-668906F02BDD}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D650F-8A08-804F-BE33-EE2FC44397D0}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2013</v>
       </c>

--- a/docs/PPG/Convênios.xlsx
+++ b/docs/PPG/Convênios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB31C47-2BF2-CF42-AAEC-A23E5505AA82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C36DE-0958-5D43-9103-8A05C056E749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="1" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="CEFAN" sheetId="20" r:id="rId1"/>
@@ -61,22 +61,22 @@
     <t>Ofício 0220 - Academia Paralímpica Brasileira</t>
   </si>
   <si>
-    <t>https://drive.google.com/file/d/1anjVf6DsK_FfVhLD34iQLCQdl6bMxu55/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1an1aTLO-bixzT2WDXgeRsEOd59PfMlxg/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1aoJk8hbZu2HiFUdjRHvH6MyhL7BqPo8b/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1aoXk1lHYA9cLQyD1RrCBHaDI5eHYF0_B/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1_IplsaFQP0cZoTFcsRwIsDR359wGyUXd/view?usp=sharing</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1aoTX8hmDHsCm4lTFCmZIUjr8JauNmYyr/view?usp=sharing</t>
+    <t>https://drive.google.com/file/d/1anjVf6DsK_FfVhLD34iQLCQdl6bMxu55</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1an1aTLO-bixzT2WDXgeRsEOd59PfMlxg</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1_IplsaFQP0cZoTFcsRwIsDR359wGyUXd</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aoTX8hmDHsCm4lTFCmZIUjr8JauNmYyr</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aoXk1lHYA9cLQyD1RrCBHaDI5eHYF0_B</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1aoJk8hbZu2HiFUdjRHvH6MyhL7BqPo8b</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB138E-F137-D447-8E3A-40BFF3AB37BA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -479,7 +479,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -490,7 +490,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -501,7 +501,7 @@
         <v>4</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -512,7 +512,7 @@
         <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -530,7 +530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D650F-8A08-804F-BE33-EE2FC44397D0}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>

--- a/docs/PPG/Convênios.xlsx
+++ b/docs/PPG/Convênios.xlsx
@@ -5,16 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/docs/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE8C36DE-0958-5D43-9103-8A05C056E749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455672A1-29D5-1E4A-9FDF-6DBCA15E5DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="2" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="CEFAN" sheetId="20" r:id="rId1"/>
     <sheet name="APB" sheetId="17" r:id="rId2"/>
+    <sheet name="UFRJ" sheetId="21" r:id="rId3"/>
+    <sheet name="PUC-RJ" sheetId="22" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
   <si>
     <t>Publicação</t>
   </si>
@@ -77,6 +79,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1aoJk8hbZu2HiFUdjRHvH6MyhL7BqPo8b</t>
+  </si>
+  <si>
+    <t>Termo de Cooperação PPGI-UFRJ</t>
+  </si>
+  <si>
+    <t>Termo de Cooperação LEM-ITUC-PUC-RJ</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1THOPIOS-bUOcfUTizuBFTcllIfuNMyyA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1TI7YtJcz92P8AFVDfUjoBvfxbZGr38G7</t>
   </si>
 </sst>
 </file>
@@ -129,11 +143,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -451,7 +466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB138E-F137-D447-8E3A-40BFF3AB37BA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -579,4 +594,90 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59411806-7649-E04D-AF21-E66C48169276}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2020</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{80B04D96-8924-7342-9137-CB664F95D37C}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C30B7D-22B9-5E4E-BED6-72A98305EADE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{916AF847-C939-AB41-BD77-9FDA00D9DF36}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Convênios.xlsx
+++ b/docs/PPG/Convênios.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/docs/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{455672A1-29D5-1E4A-9FDF-6DBCA15E5DC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F8FCB0-4811-6B47-AAEE-A545CB70E34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="2" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="CEFAN" sheetId="20" r:id="rId1"/>
     <sheet name="APB" sheetId="17" r:id="rId2"/>
     <sheet name="UFRJ" sheetId="21" r:id="rId3"/>
-    <sheet name="PUC-RJ" sheetId="22" r:id="rId4"/>
+    <sheet name="UFMG" sheetId="23" r:id="rId4"/>
+    <sheet name="PUC-RJ" sheetId="22" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>Publicação</t>
   </si>
@@ -91,6 +92,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1TI7YtJcz92P8AFVDfUjoBvfxbZGr38G7</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hqbWmDtvOtfRZSQLSWHA3d6mY8-afyle</t>
+  </si>
+  <si>
+    <t>Termo de Cooperação BIOLAB-UFMG</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1hxLo-DqYBLfriMHKplGAc3MwYfod89BL</t>
   </si>
 </sst>
 </file>
@@ -466,7 +476,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB138E-F137-D447-8E3A-40BFF3AB37BA}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -598,9 +608,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59411806-7649-E04D-AF21-E66C48169276}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -622,24 +632,79 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{80B04D96-8924-7342-9137-CB664F95D37C}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{80B04D96-8924-7342-9137-CB664F95D37C}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{EA9978A4-8D9E-B04E-AB4B-F427398F3BCD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601CD909-23AC-444A-BD6E-1804827AFA77}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{535FB7A0-6481-4045-81F9-985430EA11A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C30B7D-22B9-5E4E-BED6-72A98305EADE}">
   <dimension ref="A1:C2"/>
   <sheetViews>

--- a/docs/PPG/Convênios.xlsx
+++ b/docs/PPG/Convênios.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0F8FCB0-4811-6B47-AAEE-A545CB70E34E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC312FD0-1EF8-F840-A039-7AABE12ACE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
-    <sheet name="CEFAN" sheetId="20" r:id="rId1"/>
-    <sheet name="APB" sheetId="17" r:id="rId2"/>
-    <sheet name="UFRJ" sheetId="21" r:id="rId3"/>
-    <sheet name="UFMG" sheetId="23" r:id="rId4"/>
-    <sheet name="PUC-RJ" sheetId="22" r:id="rId5"/>
+    <sheet name="APB" sheetId="17" r:id="rId1"/>
+    <sheet name="CEFAN" sheetId="20" r:id="rId2"/>
+    <sheet name="GMU" sheetId="24" r:id="rId3"/>
+    <sheet name="PUC-RJ" sheetId="22" r:id="rId4"/>
+    <sheet name="UFMG" sheetId="23" r:id="rId5"/>
+    <sheet name="UFRJ" sheetId="21" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>Publicação</t>
   </si>
@@ -101,6 +102,12 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1hxLo-DqYBLfriMHKplGAc3MwYfod89BL</t>
+  </si>
+  <si>
+    <t>Termo de Cooperação GMU-UNISUAM</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1Ir2xqEY8tK2nB3RVvX-lTKlqEveVN5eX</t>
   </si>
 </sst>
 </file>
@@ -473,8 +480,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB138E-F137-D447-8E3A-40BFF3AB37BA}">
-  <dimension ref="A1:C5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D650F-8A08-804F-BE33-EE2FC44397D0}">
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -497,63 +504,39 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>3</v>
+      <c r="A2">
+        <v>2013</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2021</v>
+        <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2016</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2015</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{C2AA3A44-452B-6344-A11E-D904AE31FB08}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{55F49D36-2318-9247-BBFC-021660B7E0E1}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{A1AA09D1-D47C-5543-BAB1-FDB845C2B695}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{A11BC4B0-6224-7A40-AAB0-668906F02BDD}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{DF9C8DB5-77AC-E340-A069-B526E0EF6050}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{DB48E118-938F-A442-842E-8F99B5BC4670}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D650F-8A08-804F-BE33-EE2FC44397D0}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB138E-F137-D447-8E3A-40BFF3AB37BA}">
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -576,37 +559,190 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2013</v>
+      <c r="A2" t="s">
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2016</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2015</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{DF9C8DB5-77AC-E340-A069-B526E0EF6050}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{DB48E118-938F-A442-842E-8F99B5BC4670}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{C2AA3A44-452B-6344-A11E-D904AE31FB08}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{55F49D36-2318-9247-BBFC-021660B7E0E1}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{A1AA09D1-D47C-5543-BAB1-FDB845C2B695}"/>
+    <hyperlink ref="C3" r:id="rId4" xr:uid="{A11BC4B0-6224-7A40-AAB0-668906F02BDD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08E409E-974D-7B45-B941-C431EEDAEC08}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2023</v>
+      </c>
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{36E60E6A-C029-8048-9AA5-939EF6AB4C36}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C30B7D-22B9-5E4E-BED6-72A98305EADE}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{916AF847-C939-AB41-BD77-9FDA00D9DF36}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601CD909-23AC-444A-BD6E-1804827AFA77}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{535FB7A0-6481-4045-81F9-985430EA11A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59411806-7649-E04D-AF21-E66C48169276}">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -659,90 +795,4 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601CD909-23AC-444A-BD6E-1804827AFA77}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{535FB7A0-6481-4045-81F9-985430EA11A4}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C30B7D-22B9-5E4E-BED6-72A98305EADE}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{916AF847-C939-AB41-BD77-9FDA00D9DF36}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/docs/PPG/Convênios.xlsx
+++ b/docs/PPG/Convênios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC312FD0-1EF8-F840-A039-7AABE12ACE3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A5C19-7669-E041-9720-F7EC547C93AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -185,9 +185,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +225,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -331,7 +331,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>

--- a/docs/PPG/Convênios.xlsx
+++ b/docs/PPG/Convênios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B89A5C19-7669-E041-9720-F7EC547C93AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5459E1AE-7ED5-1A46-A189-C3DDB9263CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
   <si>
     <t>Publicação</t>
   </si>
@@ -108,6 +108,15 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/1Ir2xqEY8tK2nB3RVvX-lTKlqEveVN5eX</t>
+  </si>
+  <si>
+    <t>País</t>
+  </si>
+  <si>
+    <t>Brasil</t>
+  </si>
+  <si>
+    <t>Emirados Árabes Unidos</t>
   </si>
 </sst>
 </file>
@@ -185,9 +194,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -225,7 +234,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -331,7 +340,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,7 +482,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -481,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D650F-8A08-804F-BE33-EE2FC44397D0}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -489,10 +498,11 @@
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -500,35 +510,44 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2013</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2013</v>
       </c>
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{DF9C8DB5-77AC-E340-A069-B526E0EF6050}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{DB48E118-938F-A442-842E-8F99B5BC4670}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{DF9C8DB5-77AC-E340-A069-B526E0EF6050}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{DB48E118-938F-A442-842E-8F99B5BC4670}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -536,7 +555,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{27CB138E-F137-D447-8E3A-40BFF3AB37BA}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -544,10 +563,11 @@
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="54.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="79.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="79.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -555,59 +575,74 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2021</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2016</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2015</v>
       </c>
       <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C5" r:id="rId1" xr:uid="{C2AA3A44-452B-6344-A11E-D904AE31FB08}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{55F49D36-2318-9247-BBFC-021660B7E0E1}"/>
-    <hyperlink ref="C2" r:id="rId3" xr:uid="{A1AA09D1-D47C-5543-BAB1-FDB845C2B695}"/>
-    <hyperlink ref="C3" r:id="rId4" xr:uid="{A11BC4B0-6224-7A40-AAB0-668906F02BDD}"/>
+    <hyperlink ref="D5" r:id="rId1" xr:uid="{C2AA3A44-452B-6344-A11E-D904AE31FB08}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{55F49D36-2318-9247-BBFC-021660B7E0E1}"/>
+    <hyperlink ref="D2" r:id="rId3" xr:uid="{A1AA09D1-D47C-5543-BAB1-FDB845C2B695}"/>
+    <hyperlink ref="D3" r:id="rId4" xr:uid="{A11BC4B0-6224-7A40-AAB0-668906F02BDD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -615,7 +650,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08E409E-974D-7B45-B941-C431EEDAEC08}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -623,10 +658,11 @@
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="43" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="62.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -634,23 +670,29 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2023</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{36E60E6A-C029-8048-9AA5-939EF6AB4C36}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{36E60E6A-C029-8048-9AA5-939EF6AB4C36}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -658,7 +700,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C30B7D-22B9-5E4E-BED6-72A98305EADE}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -666,10 +708,11 @@
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="60.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -677,23 +720,29 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2022</v>
       </c>
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>17</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{916AF847-C939-AB41-BD77-9FDA00D9DF36}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{916AF847-C939-AB41-BD77-9FDA00D9DF36}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
@@ -701,7 +750,57 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601CD909-23AC-444A-BD6E-1804827AFA77}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{535FB7A0-6481-4045-81F9-985430EA11A4}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59411806-7649-E04D-AF21-E66C48169276}">
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -709,10 +808,11 @@
   <cols>
     <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -720,78 +820,44 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2020</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{535FB7A0-6481-4045-81F9-985430EA11A4}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59411806-7649-E04D-AF21-E66C48169276}">
-  <dimension ref="A1:C3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="61" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2020</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{80B04D96-8924-7342-9137-CB664F95D37C}"/>
-    <hyperlink ref="C2" r:id="rId2" xr:uid="{EA9978A4-8D9E-B04E-AB4B-F427398F3BCD}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{80B04D96-8924-7342-9137-CB664F95D37C}"/>
+    <hyperlink ref="D2" r:id="rId2" xr:uid="{EA9978A4-8D9E-B04E-AB4B-F427398F3BCD}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Convênios.xlsx
+++ b/docs/PPG/Convênios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5459E1AE-7ED5-1A46-A189-C3DDB9263CFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A074AB-0FF2-EC4B-9AED-1135BD3FD8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="6" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="APB" sheetId="17" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="PUC-RJ" sheetId="22" r:id="rId4"/>
     <sheet name="UFMG" sheetId="23" r:id="rId5"/>
     <sheet name="UFRJ" sheetId="21" r:id="rId6"/>
+    <sheet name="IFRJ" sheetId="25" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,10 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="26">
-  <si>
-    <t>Publicação</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
   <si>
     <t>Abrir</t>
   </si>
@@ -117,6 +115,15 @@
   </si>
   <si>
     <t>Emirados Árabes Unidos</t>
+  </si>
+  <si>
+    <t>Ano</t>
+  </si>
+  <si>
+    <t>CARTA DE PARCERIA EXTERNA</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/10b-316n2YNIPZ_wT_haRqxh-XsN3q3yW</t>
   </si>
 </sst>
 </file>
@@ -194,9 +201,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -234,7 +241,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -340,7 +347,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -482,7 +489,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -492,7 +499,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D650F-8A08-804F-BE33-EE2FC44397D0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -504,16 +511,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -521,13 +528,13 @@
         <v>2013</v>
       </c>
       <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -535,13 +542,13 @@
         <v>2013</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -569,30 +576,30 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -600,13 +607,13 @@
         <v>2021</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -614,13 +621,13 @@
         <v>2016</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -628,13 +635,13 @@
         <v>2015</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -664,16 +671,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -681,13 +688,13 @@
         <v>2023</v>
       </c>
       <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -714,16 +721,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -731,13 +738,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -764,16 +771,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -781,13 +788,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>19</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -814,16 +821,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -831,13 +838,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -845,13 +852,13 @@
         <v>2020</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -861,4 +868,54 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30416DD7-026B-BB47-82EB-167107FB397E}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{937FC5B3-C6CC-AA4E-8390-699ED16AB9BC}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Convênios.xlsx
+++ b/docs/PPG/Convênios.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A074AB-0FF2-EC4B-9AED-1135BD3FD8F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FF622B-17F6-4349-A8F1-070A68D55D66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" activeTab="6" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
+    <workbookView xWindow="1160" yWindow="1100" windowWidth="27640" windowHeight="16900" xr2:uid="{46CBE343-25B5-CE4C-8D60-80361989358C}"/>
   </bookViews>
   <sheets>
     <sheet name="APB" sheetId="17" r:id="rId1"/>
     <sheet name="CEFAN" sheetId="20" r:id="rId2"/>
     <sheet name="GMU" sheetId="24" r:id="rId3"/>
-    <sheet name="PUC-RJ" sheetId="22" r:id="rId4"/>
-    <sheet name="UFMG" sheetId="23" r:id="rId5"/>
-    <sheet name="UFRJ" sheetId="21" r:id="rId6"/>
-    <sheet name="IFRJ" sheetId="25" r:id="rId7"/>
+    <sheet name="G7" sheetId="26" r:id="rId4"/>
+    <sheet name="PUC-RJ" sheetId="22" r:id="rId5"/>
+    <sheet name="UFMG" sheetId="23" r:id="rId6"/>
+    <sheet name="UFRJ" sheetId="21" r:id="rId7"/>
+    <sheet name="IFRJ" sheetId="25" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="30">
   <si>
     <t>Abrir</t>
   </si>
@@ -102,12 +103,6 @@
     <t>https://drive.google.com/file/d/1hxLo-DqYBLfriMHKplGAc3MwYfod89BL</t>
   </si>
   <si>
-    <t>Termo de Cooperação GMU-UNISUAM</t>
-  </si>
-  <si>
-    <t>https://drive.google.com/file/d/1Ir2xqEY8tK2nB3RVvX-lTKlqEveVN5eX</t>
-  </si>
-  <si>
     <t>País</t>
   </si>
   <si>
@@ -124,6 +119,18 @@
   </si>
   <si>
     <t>https://drive.google.com/file/d/10b-316n2YNIPZ_wT_haRqxh-XsN3q3yW</t>
+  </si>
+  <si>
+    <t>MEMORANDUM OF UNDERSTANDING BETWEEN UNISUAM AND College of Health Sciences (CoHS - GMU)</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1i6JSZzzWEfqN2Cxqj5ByofuvxPSxbNSj</t>
+  </si>
+  <si>
+    <t>https://drive.google.com/file/d/1DwP2V2PYtKVeHPExmJC754E-PIoraz6g</t>
+  </si>
+  <si>
+    <t>ADITIVO AO TERMO DE COOPERAÇÃO– INCUBADORA DE REDES DE COOPERAÇÃO SEMESP</t>
   </si>
 </sst>
 </file>
@@ -499,7 +506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B8D650F-8A08-804F-BE33-EE2FC44397D0}">
   <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -511,13 +518,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -531,7 +538,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>7</v>
@@ -545,7 +552,7 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>8</v>
@@ -576,13 +583,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -596,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>9</v>
@@ -610,7 +617,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>10</v>
@@ -624,7 +631,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>11</v>
@@ -638,7 +645,7 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
@@ -659,7 +666,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A08E409E-974D-7B45-B941-C431EEDAEC08}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -671,13 +680,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -685,27 +694,77 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="B2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" xr:uid="{36E60E6A-C029-8048-9AA5-939EF6AB4C36}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{B35056E5-848F-6848-BF41-B2F4F43A9F20}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62A5CA48-EE63-C74F-ACBD-68E0368BE1CF}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="61.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>2021</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{1F8783EB-0405-9C4D-8592-0FAFA1F4B8D9}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99C30B7D-22B9-5E4E-BED6-72A98305EADE}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -721,13 +780,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -741,7 +800,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>16</v>
@@ -755,7 +814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{601CD909-23AC-444A-BD6E-1804827AFA77}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -771,13 +830,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -791,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>19</v>
@@ -805,7 +864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59411806-7649-E04D-AF21-E66C48169276}">
   <dimension ref="A1:D3"/>
   <sheetViews>
@@ -821,13 +880,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -841,7 +900,7 @@
         <v>13</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>17</v>
@@ -855,7 +914,7 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>15</v>
@@ -870,11 +929,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30416DD7-026B-BB47-82EB-167107FB397E}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -886,13 +945,13 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
@@ -903,13 +962,13 @@
         <v>2024</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
